--- a/time_estimate.xlsx
+++ b/time_estimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiren/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiren/Downloads/Building-a-CI-CD-pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D5FFC-EB70-344B-8312-014F8317F794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF13519-AE39-AD41-83A5-36E7A8E0ED18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Week</t>
-  </si>
   <si>
     <t>Goals</t>
   </si>
@@ -67,10 +64,13 @@
     <t>Ruthless automation</t>
   </si>
   <si>
-    <t>Implement a CI/CD pipeline</t>
+    <t>Continuous improvement</t>
   </si>
   <si>
-    <t>Continuous improvement</t>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>CI/CD pipeline Implementation</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -395,19 +395,19 @@
   <sheetData>
     <row r="1" spans="1:27" ht="42" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="3"/>
@@ -434,10 +434,10 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="4">
-        <v>44270</v>
+        <v>44317</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="12">
         <v>15</v>
@@ -473,11 +473,11 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="4">
-        <f>A2+7</f>
-        <v>44277</v>
+        <f>A2+1</f>
+        <v>44318</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="12">
         <v>15</v>
@@ -513,11 +513,11 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A9" si="0">A3+7</f>
-        <v>44284</v>
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <v>44319</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12">
         <v>15</v>
@@ -554,10 +554,10 @@
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
-        <v>44291</v>
+        <v>44320</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12">
         <v>15</v>
@@ -594,10 +594,10 @@
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12">
         <v>15</v>
@@ -634,10 +634,10 @@
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>44305</v>
+        <v>44322</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12">
         <v>15</v>
@@ -674,10 +674,10 @@
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>44312</v>
+        <v>44323</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="12">
         <v>15</v>
@@ -714,10 +714,10 @@
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>44319</v>
+        <v>44324</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12">
         <v>15</v>
@@ -870,7 +870,7 @@
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -901,7 +901,7 @@
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -932,7 +932,7 @@
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -963,7 +963,7 @@
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
